--- a/biology/Botanique/Pachypodium/Pachypodium.xlsx
+++ b/biology/Botanique/Pachypodium/Pachypodium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Pachypodium regroupe des plantes de la famille des Apocynacées. Signifiant pied épais le nom de genre se réfère aux tiges épaissies à la base de ces plantes (caudex). Comme toutes les Apocynacées les Pachypodium produisent un latex riche en alcaloïdes qui dans le cas de Pachypodium lealii est hautement vénéneux.
 Les Pachypodium ont une tige épaisse souvent épineuse avec des feuilles caduques simples. Ils sont originaires de Madagascar et d'Afrique australe.
